--- a/data/inflasi.xlsx
+++ b/data/inflasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapp\streamlit\Subsidi3213\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webapp\streamlit\botani3271\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DF9AC-6839-45DB-95DD-F9FFDC5D61FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48700F-A0CF-438D-B417-E106E085AEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +458,10 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,17 +508,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>108.37</v>
+      <c r="D2">
+        <v>105.62</v>
       </c>
       <c r="E2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F2">
-        <v>0.28000000000000003</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
-        <v>4.9000000000000004</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,18 +528,6 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>110.62</v>
-      </c>
-      <c r="E3">
-        <v>0.02</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>9.11</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -555,18 +539,6 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>107.97</v>
-      </c>
-      <c r="E4">
-        <v>-0.64</v>
-      </c>
-      <c r="F4">
-        <v>-0.64</v>
-      </c>
-      <c r="G4">
-        <v>1.1599999999999999</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -578,18 +550,6 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>102.17</v>
-      </c>
-      <c r="E5">
-        <v>0.22</v>
-      </c>
-      <c r="F5">
-        <v>0.22</v>
-      </c>
-      <c r="G5">
-        <v>-0.37</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -601,18 +561,6 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>103.58</v>
-      </c>
-      <c r="E6">
-        <v>0.26</v>
-      </c>
-      <c r="F6">
-        <v>0.26</v>
-      </c>
-      <c r="G6">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -624,18 +572,6 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>103.84</v>
-      </c>
-      <c r="E7">
-        <v>0.79</v>
-      </c>
-      <c r="F7">
-        <v>0.79</v>
-      </c>
-      <c r="G7">
-        <v>0.79</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -647,18 +583,6 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>115.86</v>
-      </c>
-      <c r="E8">
-        <v>0.08</v>
-      </c>
-      <c r="F8">
-        <v>0.08</v>
-      </c>
-      <c r="G8">
-        <v>0.91</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -670,18 +594,6 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>98.09</v>
-      </c>
-      <c r="E9">
-        <v>0.11</v>
-      </c>
-      <c r="F9">
-        <v>0.11</v>
-      </c>
-      <c r="G9">
-        <v>-0.16</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -693,18 +605,6 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>110.78</v>
-      </c>
-      <c r="E10">
-        <v>0.13</v>
-      </c>
-      <c r="F10">
-        <v>0.13</v>
-      </c>
-      <c r="G10">
-        <v>7.55</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -716,12 +616,6 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G11">
-        <v>0.82</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -733,18 +627,6 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>109.22</v>
-      </c>
-      <c r="E12">
-        <v>0.49</v>
-      </c>
-      <c r="F12">
-        <v>0.49</v>
-      </c>
-      <c r="G12">
-        <v>5.19</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -756,18 +638,6 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>111.32</v>
-      </c>
-      <c r="E13">
-        <v>3.32</v>
-      </c>
-      <c r="F13">
-        <v>3.32</v>
-      </c>
-      <c r="G13">
-        <v>8.85</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -779,17 +649,14 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>108.51</v>
+      <c r="D14">
+        <v>106.25</v>
       </c>
       <c r="E14">
-        <v>0.13</v>
-      </c>
-      <c r="F14">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G14">
-        <v>4.5599999999999996</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,18 +669,6 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
-        <v>110.71</v>
-      </c>
-      <c r="E15">
-        <v>0.08</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="G15">
-        <v>7.77</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -825,18 +680,6 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
-        <v>107.59</v>
-      </c>
-      <c r="E16">
-        <v>-0.35</v>
-      </c>
-      <c r="F16">
-        <v>-0.98</v>
-      </c>
-      <c r="G16">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -848,18 +691,6 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>102.99</v>
-      </c>
-      <c r="E17">
-        <v>0.8</v>
-      </c>
-      <c r="F17">
-        <v>1.02</v>
-      </c>
-      <c r="G17">
-        <v>1.43</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -871,15 +702,6 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
-        <v>103.58</v>
-      </c>
-      <c r="F18">
-        <v>0.26</v>
-      </c>
-      <c r="G18">
-        <v>0.59</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -891,18 +713,6 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
-        <v>104.28</v>
-      </c>
-      <c r="E19">
-        <v>0.42</v>
-      </c>
-      <c r="F19">
-        <v>1.21</v>
-      </c>
-      <c r="G19">
-        <v>1.21</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -914,18 +724,6 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>116.14</v>
-      </c>
-      <c r="E20">
-        <v>0.24</v>
-      </c>
-      <c r="F20">
-        <v>0.32</v>
-      </c>
-      <c r="G20">
-        <v>0.99</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -937,15 +735,6 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
-        <v>98.09</v>
-      </c>
-      <c r="F21">
-        <v>0.11</v>
-      </c>
-      <c r="G21">
-        <v>-0.35</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -957,15 +746,6 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>110.78</v>
-      </c>
-      <c r="F22">
-        <v>0.13</v>
-      </c>
-      <c r="G22">
-        <v>6.44</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -977,12 +757,6 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G23">
-        <v>0.82</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -994,15 +768,6 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
-        <v>109.22</v>
-      </c>
-      <c r="F24">
-        <v>0.49</v>
-      </c>
-      <c r="G24">
-        <v>4.99</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1014,18 +779,6 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
-        <v>111.56</v>
-      </c>
-      <c r="E25">
-        <v>0.22</v>
-      </c>
-      <c r="F25">
-        <v>3.55</v>
-      </c>
-      <c r="G25">
-        <v>9.25</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1037,17 +790,14 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <v>108.67</v>
+      <c r="D26">
+        <v>106.73</v>
       </c>
       <c r="E26">
-        <v>0.15</v>
-      </c>
-      <c r="F26">
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G26">
-        <v>4.6900000000000004</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,18 +810,6 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
-        <v>111.2</v>
-      </c>
-      <c r="E27">
-        <v>0.44</v>
-      </c>
-      <c r="F27">
-        <v>0.54</v>
-      </c>
-      <c r="G27">
-        <v>8.3000000000000007</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1083,18 +821,6 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
-        <v>106.58</v>
-      </c>
-      <c r="E28">
-        <v>-0.94</v>
-      </c>
-      <c r="F28">
-        <v>-1.91</v>
-      </c>
-      <c r="G28">
-        <v>-0.2</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1106,18 +832,6 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="1">
-        <v>102.89</v>
-      </c>
-      <c r="E29">
-        <v>-0.1</v>
-      </c>
-      <c r="F29">
-        <v>0.92</v>
-      </c>
-      <c r="G29">
-        <v>1.1499999999999999</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1129,18 +843,6 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
-        <v>104.32</v>
-      </c>
-      <c r="E30">
-        <v>0.71</v>
-      </c>
-      <c r="F30">
-        <v>0.98</v>
-      </c>
-      <c r="G30">
-        <v>0.94</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1152,18 +854,6 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
-        <v>104.63</v>
-      </c>
-      <c r="E31">
-        <v>0.34</v>
-      </c>
-      <c r="F31">
-        <v>1.55</v>
-      </c>
-      <c r="G31">
-        <v>1.55</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1175,15 +865,6 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
-        <v>116.14</v>
-      </c>
-      <c r="F32">
-        <v>0.32</v>
-      </c>
-      <c r="G32">
-        <v>1.0900000000000001</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1195,18 +876,6 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>98.08</v>
-      </c>
-      <c r="E33">
-        <v>-0.01</v>
-      </c>
-      <c r="F33">
-        <v>0.1</v>
-      </c>
-      <c r="G33">
-        <v>-0.41</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1218,15 +887,6 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
-        <v>110.78</v>
-      </c>
-      <c r="F34">
-        <v>0.13</v>
-      </c>
-      <c r="G34">
-        <v>5.82</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1238,12 +898,6 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G35">
-        <v>0.82</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1255,15 +909,6 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>109.22</v>
-      </c>
-      <c r="F36">
-        <v>0.49</v>
-      </c>
-      <c r="G36">
-        <v>4.99</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1275,18 +920,6 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
-        <v>111.72</v>
-      </c>
-      <c r="E37">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F37">
-        <v>3.69</v>
-      </c>
-      <c r="G37">
-        <v>9.41</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1298,17 +931,14 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
-        <v>108.69</v>
+      <c r="D38">
+        <v>106.84</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
-      </c>
-      <c r="F38">
-        <v>0.56999999999999995</v>
+        <v>0.1</v>
       </c>
       <c r="G38">
-        <v>4.3099999999999996</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,18 +951,6 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="1">
-        <v>111.26</v>
-      </c>
-      <c r="E39">
-        <v>0.05</v>
-      </c>
-      <c r="F39">
-        <v>0.6</v>
-      </c>
-      <c r="G39">
-        <v>7.66</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1344,15 +962,6 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="1">
-        <v>106.58</v>
-      </c>
-      <c r="F40">
-        <v>-1.91</v>
-      </c>
-      <c r="G40">
-        <v>-0.2</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1364,18 +973,6 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="1">
-        <v>102.88</v>
-      </c>
-      <c r="E41">
-        <v>-0.01</v>
-      </c>
-      <c r="F41">
-        <v>0.91</v>
-      </c>
-      <c r="G41">
-        <v>1.18</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1387,18 +984,6 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" s="1">
-        <v>103.52</v>
-      </c>
-      <c r="E42">
-        <v>-0.77</v>
-      </c>
-      <c r="F42">
-        <v>0.2</v>
-      </c>
-      <c r="G42">
-        <v>0.12</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1410,15 +995,6 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="1">
-        <v>104.63</v>
-      </c>
-      <c r="F43">
-        <v>1.55</v>
-      </c>
-      <c r="G43">
-        <v>1.55</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1430,18 +1006,6 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" s="1">
-        <v>116.68</v>
-      </c>
-      <c r="E44">
-        <v>0.46</v>
-      </c>
-      <c r="F44">
-        <v>0.79</v>
-      </c>
-      <c r="G44">
-        <v>1.56</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1453,18 +1017,6 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="1">
-        <v>97.79</v>
-      </c>
-      <c r="E45">
-        <v>-0.3</v>
-      </c>
-      <c r="F45">
-        <v>-0.19</v>
-      </c>
-      <c r="G45">
-        <v>-0.66</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1476,15 +1028,6 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="1">
-        <v>110.78</v>
-      </c>
-      <c r="F46">
-        <v>0.13</v>
-      </c>
-      <c r="G46">
-        <v>5.78</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1496,12 +1039,6 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G47">
-        <v>0.82</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1513,15 +1050,6 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="1">
-        <v>109.22</v>
-      </c>
-      <c r="F48">
-        <v>0.49</v>
-      </c>
-      <c r="G48">
-        <v>4.3499999999999996</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1533,15 +1061,6 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="1">
-        <v>111.72</v>
-      </c>
-      <c r="F49">
-        <v>3.69</v>
-      </c>
-      <c r="G49">
-        <v>8.2100000000000009</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1553,17 +1072,14 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" s="1">
-        <v>108.13</v>
+      <c r="D50">
+        <v>106.82</v>
       </c>
       <c r="E50">
-        <v>-0.52</v>
-      </c>
-      <c r="F50">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="G50">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,18 +1092,6 @@
       <c r="C51">
         <v>5</v>
       </c>
-      <c r="D51" s="1">
-        <v>109.65</v>
-      </c>
-      <c r="E51">
-        <v>-1.45</v>
-      </c>
-      <c r="F51">
-        <v>-0.86</v>
-      </c>
-      <c r="G51">
-        <v>5.13</v>
-      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1599,15 +1103,6 @@
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52" s="1">
-        <v>106.58</v>
-      </c>
-      <c r="F52">
-        <v>-1.91</v>
-      </c>
-      <c r="G52">
-        <v>-0.2</v>
-      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1619,18 +1114,6 @@
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="1">
-        <v>102.91</v>
-      </c>
-      <c r="E53">
-        <v>0.03</v>
-      </c>
-      <c r="F53">
-        <v>0.94</v>
-      </c>
-      <c r="G53">
-        <v>1.58</v>
-      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1642,15 +1125,6 @@
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54" s="1">
-        <v>103.52</v>
-      </c>
-      <c r="F54">
-        <v>0.2</v>
-      </c>
-      <c r="G54">
-        <v>0.12</v>
-      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -1662,15 +1136,6 @@
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55" s="1">
-        <v>104.63</v>
-      </c>
-      <c r="F55">
-        <v>1.55</v>
-      </c>
-      <c r="G55">
-        <v>1.55</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -1682,18 +1147,6 @@
       <c r="C56">
         <v>5</v>
       </c>
-      <c r="D56" s="1">
-        <v>116.36</v>
-      </c>
-      <c r="E56">
-        <v>-0.27</v>
-      </c>
-      <c r="F56">
-        <v>0.51</v>
-      </c>
-      <c r="G56">
-        <v>1.28</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1705,15 +1158,6 @@
       <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="1">
-        <v>97.79</v>
-      </c>
-      <c r="F57">
-        <v>-0.19</v>
-      </c>
-      <c r="G57">
-        <v>-0.66</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1725,18 +1169,6 @@
       <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="E58">
-        <v>-0.25</v>
-      </c>
-      <c r="F58">
-        <v>-0.13</v>
-      </c>
-      <c r="G58">
-        <v>5.48</v>
-      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1748,12 +1180,6 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G59">
-        <v>0.82</v>
-      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1765,15 +1191,6 @@
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="1">
-        <v>109.22</v>
-      </c>
-      <c r="F60">
-        <v>0.49</v>
-      </c>
-      <c r="G60">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1785,18 +1202,6 @@
       <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="1">
-        <v>113.14</v>
-      </c>
-      <c r="E61">
-        <v>1.27</v>
-      </c>
-      <c r="F61">
-        <v>5.01</v>
-      </c>
-      <c r="G61">
-        <v>9.89</v>
-      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1808,17 +1213,14 @@
       <c r="C62">
         <v>6</v>
       </c>
-      <c r="D62" s="1">
-        <v>107.75</v>
+      <c r="D62">
+        <v>106.7</v>
       </c>
       <c r="E62">
-        <v>-0.35</v>
-      </c>
-      <c r="F62">
-        <v>-0.3</v>
+        <v>-0.11</v>
       </c>
       <c r="G62">
-        <v>2.5</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,18 +1233,6 @@
       <c r="C63">
         <v>6</v>
       </c>
-      <c r="D63" s="1">
-        <v>108.68</v>
-      </c>
-      <c r="E63">
-        <v>-0.88</v>
-      </c>
-      <c r="F63">
-        <v>-1.74</v>
-      </c>
-      <c r="G63">
-        <v>3.59</v>
-      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1854,15 +1244,6 @@
       <c r="C64">
         <v>6</v>
       </c>
-      <c r="D64" s="1">
-        <v>106.58</v>
-      </c>
-      <c r="F64">
-        <v>-1.91</v>
-      </c>
-      <c r="G64">
-        <v>-0.2</v>
-      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1874,15 +1255,6 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="1">
-        <v>102.91</v>
-      </c>
-      <c r="F65">
-        <v>0.94</v>
-      </c>
-      <c r="G65">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -1894,15 +1266,6 @@
       <c r="C66">
         <v>6</v>
       </c>
-      <c r="D66" s="1">
-        <v>103.52</v>
-      </c>
-      <c r="F66">
-        <v>0.2</v>
-      </c>
-      <c r="G66">
-        <v>-0.12</v>
-      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1914,15 +1277,6 @@
       <c r="C67">
         <v>6</v>
       </c>
-      <c r="D67" s="1">
-        <v>104.63</v>
-      </c>
-      <c r="F67">
-        <v>1.55</v>
-      </c>
-      <c r="G67">
-        <v>1.55</v>
-      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1934,15 +1288,6 @@
       <c r="C68">
         <v>6</v>
       </c>
-      <c r="D68" s="1">
-        <v>116.36</v>
-      </c>
-      <c r="F68">
-        <v>0.51</v>
-      </c>
-      <c r="G68">
-        <v>0.83</v>
-      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1954,18 +1299,6 @@
       <c r="C69">
         <v>6</v>
       </c>
-      <c r="D69" s="1">
-        <v>97.75</v>
-      </c>
-      <c r="E69">
-        <v>-0.04</v>
-      </c>
-      <c r="F69">
-        <v>-0.23</v>
-      </c>
-      <c r="G69">
-        <v>-0.6</v>
-      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1977,18 +1310,6 @@
       <c r="C70">
         <v>6</v>
       </c>
-      <c r="D70" s="1">
-        <v>109.27</v>
-      </c>
-      <c r="E70">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="F70">
-        <v>-1.24</v>
-      </c>
-      <c r="G70">
-        <v>2.96</v>
-      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -2000,12 +1321,6 @@
       <c r="C71">
         <v>6</v>
       </c>
-      <c r="D71" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G71">
-        <v>0.67</v>
-      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -2017,18 +1332,6 @@
       <c r="C72">
         <v>6</v>
       </c>
-      <c r="D72" s="1">
-        <v>109.34</v>
-      </c>
-      <c r="E72">
-        <v>0.11</v>
-      </c>
-      <c r="F72">
-        <v>0.6</v>
-      </c>
-      <c r="G72">
-        <v>2.61</v>
-      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2040,18 +1343,6 @@
       <c r="C73">
         <v>6</v>
       </c>
-      <c r="D73" s="1">
-        <v>113</v>
-      </c>
-      <c r="E73">
-        <v>-0.12</v>
-      </c>
-      <c r="F73">
-        <v>4.88</v>
-      </c>
-      <c r="G73">
-        <v>9.75</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2063,17 +1354,14 @@
       <c r="C74">
         <v>7</v>
       </c>
-      <c r="D74" s="1">
-        <v>108.34</v>
+      <c r="D74">
+        <v>106.63</v>
       </c>
       <c r="E74">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F74">
-        <v>0.25</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G74">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,18 +1374,6 @@
       <c r="C75">
         <v>7</v>
       </c>
-      <c r="D75" s="1">
-        <v>109.7</v>
-      </c>
-      <c r="E75">
-        <v>0.94</v>
-      </c>
-      <c r="F75">
-        <v>-0.81</v>
-      </c>
-      <c r="G75">
-        <v>3.16</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2109,18 +1385,6 @@
       <c r="C76">
         <v>7</v>
       </c>
-      <c r="D76" s="1">
-        <v>106.68</v>
-      </c>
-      <c r="E76">
-        <v>0.09</v>
-      </c>
-      <c r="F76">
-        <v>-1.82</v>
-      </c>
-      <c r="G76">
-        <v>-1.1499999999999999</v>
-      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -2132,18 +1396,6 @@
       <c r="C77">
         <v>7</v>
       </c>
-      <c r="D77" s="1">
-        <v>103.5</v>
-      </c>
-      <c r="E77">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F77">
-        <v>1.52</v>
-      </c>
-      <c r="G77">
-        <v>1.9</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -2155,18 +1407,6 @@
       <c r="C78">
         <v>7</v>
       </c>
-      <c r="D78" s="1">
-        <v>104.03</v>
-      </c>
-      <c r="E78">
-        <v>0.49</v>
-      </c>
-      <c r="F78">
-        <v>0.7</v>
-      </c>
-      <c r="G78">
-        <v>0.14000000000000001</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -2178,18 +1418,6 @@
       <c r="C79">
         <v>7</v>
       </c>
-      <c r="D79" s="1">
-        <v>105.04</v>
-      </c>
-      <c r="E79">
-        <v>0.39</v>
-      </c>
-      <c r="F79">
-        <v>1.95</v>
-      </c>
-      <c r="G79">
-        <v>1.95</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2201,18 +1429,6 @@
       <c r="C80">
         <v>7</v>
       </c>
-      <c r="D80" s="1">
-        <v>116.5</v>
-      </c>
-      <c r="E80">
-        <v>0.12</v>
-      </c>
-      <c r="F80">
-        <v>0.63</v>
-      </c>
-      <c r="G80">
-        <v>0.95</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2224,18 +1440,6 @@
       <c r="C81">
         <v>7</v>
       </c>
-      <c r="D81" s="1">
-        <v>97.63</v>
-      </c>
-      <c r="E81">
-        <v>-0.12</v>
-      </c>
-      <c r="F81">
-        <v>-0.36</v>
-      </c>
-      <c r="G81">
-        <v>-0.67</v>
-      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -2247,18 +1451,6 @@
       <c r="C82">
         <v>7</v>
       </c>
-      <c r="D82" s="1">
-        <v>109.4</v>
-      </c>
-      <c r="E82">
-        <v>0.12</v>
-      </c>
-      <c r="F82">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="G82">
-        <v>0.84</v>
-      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2270,12 +1462,6 @@
       <c r="C83">
         <v>7</v>
       </c>
-      <c r="D83" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G83">
-        <v>0.61</v>
-      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2287,18 +1473,6 @@
       <c r="C84">
         <v>7</v>
       </c>
-      <c r="D84" s="1">
-        <v>109.71</v>
-      </c>
-      <c r="E84">
-        <v>0.34</v>
-      </c>
-      <c r="F84">
-        <v>0.94</v>
-      </c>
-      <c r="G84">
-        <v>1.85</v>
-      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2310,18 +1484,6 @@
       <c r="C85">
         <v>7</v>
       </c>
-      <c r="D85" s="1">
-        <v>113.76</v>
-      </c>
-      <c r="E85">
-        <v>0.67</v>
-      </c>
-      <c r="F85">
-        <v>5.59</v>
-      </c>
-      <c r="G85">
-        <v>10.029999999999999</v>
-      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2333,17 +1495,14 @@
       <c r="C86">
         <v>8</v>
       </c>
-      <c r="D86" s="1">
-        <v>108.47</v>
+      <c r="D86">
+        <v>106.67</v>
       </c>
       <c r="E86">
-        <v>0.12</v>
-      </c>
-      <c r="F86">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="G86">
-        <v>2.9</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,18 +1515,6 @@
       <c r="C87">
         <v>8</v>
       </c>
-      <c r="D87" s="1">
-        <v>109.3</v>
-      </c>
-      <c r="E87">
-        <v>-0.36</v>
-      </c>
-      <c r="F87">
-        <v>-1.18</v>
-      </c>
-      <c r="G87">
-        <v>4.3</v>
-      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -2379,18 +1526,6 @@
       <c r="C88">
         <v>8</v>
       </c>
-      <c r="D88" s="1">
-        <v>106.78</v>
-      </c>
-      <c r="E88">
-        <v>0.09</v>
-      </c>
-      <c r="F88">
-        <v>-1.73</v>
-      </c>
-      <c r="G88">
-        <v>-1.04</v>
-      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -2402,18 +1537,6 @@
       <c r="C89">
         <v>8</v>
       </c>
-      <c r="D89" s="1">
-        <v>103.7</v>
-      </c>
-      <c r="E89">
-        <v>0.19</v>
-      </c>
-      <c r="F89">
-        <v>1.72</v>
-      </c>
-      <c r="G89">
-        <v>2.09</v>
-      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -2425,18 +1548,6 @@
       <c r="C90">
         <v>8</v>
       </c>
-      <c r="D90" s="1">
-        <v>104.7</v>
-      </c>
-      <c r="E90">
-        <v>0.64</v>
-      </c>
-      <c r="F90">
-        <v>1.35</v>
-      </c>
-      <c r="G90">
-        <v>0.99</v>
-      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2448,15 +1559,6 @@
       <c r="C91">
         <v>8</v>
       </c>
-      <c r="D91" s="1">
-        <v>105.04</v>
-      </c>
-      <c r="F91">
-        <v>1.95</v>
-      </c>
-      <c r="G91">
-        <v>1.95</v>
-      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -2468,18 +1570,6 @@
       <c r="C92">
         <v>8</v>
       </c>
-      <c r="D92" s="1">
-        <v>117.02</v>
-      </c>
-      <c r="E92">
-        <v>0.45</v>
-      </c>
-      <c r="F92">
-        <v>1.08</v>
-      </c>
-      <c r="G92">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -2491,15 +1581,6 @@
       <c r="C93">
         <v>8</v>
       </c>
-      <c r="D93" s="1">
-        <v>97.63</v>
-      </c>
-      <c r="F93">
-        <v>-0.36</v>
-      </c>
-      <c r="G93">
-        <v>-0.67</v>
-      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -2511,18 +1592,6 @@
       <c r="C94">
         <v>8</v>
       </c>
-      <c r="D94" s="1">
-        <v>110.04</v>
-      </c>
-      <c r="E94">
-        <v>0.59</v>
-      </c>
-      <c r="F94">
-        <v>-0.54</v>
-      </c>
-      <c r="G94">
-        <v>1.43</v>
-      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -2534,12 +1603,6 @@
       <c r="C95">
         <v>8</v>
       </c>
-      <c r="D95" s="1">
-        <v>100.83</v>
-      </c>
-      <c r="G95">
-        <v>0.61</v>
-      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -2551,18 +1614,6 @@
       <c r="C96">
         <v>8</v>
       </c>
-      <c r="D96" s="1">
-        <v>110.75</v>
-      </c>
-      <c r="E96">
-        <v>0.95</v>
-      </c>
-      <c r="F96">
-        <v>1.9</v>
-      </c>
-      <c r="G96">
-        <v>2.5499999999999998</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -2574,18 +1625,6 @@
       <c r="C97">
         <v>8</v>
       </c>
-      <c r="D97" s="1">
-        <v>114.19</v>
-      </c>
-      <c r="E97">
-        <v>0.38</v>
-      </c>
-      <c r="F97">
-        <v>5.99</v>
-      </c>
-      <c r="G97">
-        <v>10.49</v>
-      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2597,17 +1636,14 @@
       <c r="C98">
         <v>9</v>
       </c>
-      <c r="D98" s="1">
-        <v>108.06</v>
+      <c r="D98">
+        <v>106.52</v>
       </c>
       <c r="E98">
-        <v>-0.38</v>
-      </c>
-      <c r="F98">
-        <v>-0.01</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G98">
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,18 +1656,6 @@
       <c r="C99">
         <v>9</v>
       </c>
-      <c r="D99" s="1">
-        <v>108.07</v>
-      </c>
-      <c r="E99">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="F99">
-        <v>-2.29</v>
-      </c>
-      <c r="G99">
-        <v>2.4700000000000002</v>
-      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2643,18 +1667,6 @@
       <c r="C100">
         <v>9</v>
       </c>
-      <c r="D100" s="1">
-        <v>107.05</v>
-      </c>
-      <c r="E100">
-        <v>0.25</v>
-      </c>
-      <c r="F100">
-        <v>-1.48</v>
-      </c>
-      <c r="G100">
-        <v>-0.79</v>
-      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2666,18 +1678,6 @@
       <c r="C101">
         <v>9</v>
       </c>
-      <c r="D101" s="1">
-        <v>103.78</v>
-      </c>
-      <c r="E101">
-        <v>0.08</v>
-      </c>
-      <c r="F101">
-        <v>1.79</v>
-      </c>
-      <c r="G101">
-        <v>1.8</v>
-      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -2689,18 +1689,6 @@
       <c r="C102">
         <v>9</v>
       </c>
-      <c r="D102" s="1">
-        <v>104.99</v>
-      </c>
-      <c r="E102">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F102">
-        <v>1.63</v>
-      </c>
-      <c r="G102">
-        <v>1.27</v>
-      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -2712,15 +1700,6 @@
       <c r="C103">
         <v>9</v>
       </c>
-      <c r="D103" s="1">
-        <v>105.04</v>
-      </c>
-      <c r="F103">
-        <v>1.95</v>
-      </c>
-      <c r="G103">
-        <v>1.95</v>
-      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -2732,18 +1711,6 @@
       <c r="C104">
         <v>9</v>
       </c>
-      <c r="D104" s="1">
-        <v>116.75</v>
-      </c>
-      <c r="E104">
-        <v>-0.23</v>
-      </c>
-      <c r="F104">
-        <v>0.85</v>
-      </c>
-      <c r="G104">
-        <v>1.17</v>
-      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2755,15 +1722,6 @@
       <c r="C105">
         <v>9</v>
       </c>
-      <c r="D105" s="1">
-        <v>97.63</v>
-      </c>
-      <c r="F105">
-        <v>-0.36</v>
-      </c>
-      <c r="G105">
-        <v>-0.67</v>
-      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -2775,18 +1733,6 @@
       <c r="C106">
         <v>9</v>
       </c>
-      <c r="D106" s="1">
-        <v>109.4</v>
-      </c>
-      <c r="E106">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="F106">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="G106">
-        <v>0.84</v>
-      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2798,18 +1744,6 @@
       <c r="C107">
         <v>9</v>
       </c>
-      <c r="D107" s="1">
-        <v>100.89</v>
-      </c>
-      <c r="E107">
-        <v>0.06</v>
-      </c>
-      <c r="F107">
-        <v>0.06</v>
-      </c>
-      <c r="G107">
-        <v>0.67</v>
-      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2821,15 +1755,6 @@
       <c r="C108">
         <v>9</v>
       </c>
-      <c r="D108" s="1">
-        <v>110.75</v>
-      </c>
-      <c r="F108">
-        <v>1.9</v>
-      </c>
-      <c r="G108">
-        <v>2.3199999999999998</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2841,18 +1766,6 @@
       <c r="C109">
         <v>9</v>
       </c>
-      <c r="D109" s="1">
-        <v>114.95</v>
-      </c>
-      <c r="E109">
-        <v>0.67</v>
-      </c>
-      <c r="F109">
-        <v>6.69</v>
-      </c>
-      <c r="G109">
-        <v>11.14</v>
-      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2864,8 +1777,14 @@
       <c r="C110">
         <v>10</v>
       </c>
-      <c r="D110" s="1">
-        <v>108.19</v>
+      <c r="D110">
+        <v>106.61</v>
+      </c>
+      <c r="E110">
+        <v>0.08</v>
+      </c>
+      <c r="G110">
+        <v>2.21</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2878,7 +1797,6 @@
       <c r="C111">
         <v>10</v>
       </c>
-      <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2890,9 +1808,8 @@
       <c r="C112">
         <v>10</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2902,9 +1819,8 @@
       <c r="C113">
         <v>10</v>
       </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2914,9 +1830,8 @@
       <c r="C114">
         <v>10</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2926,9 +1841,8 @@
       <c r="C115">
         <v>10</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2938,9 +1852,8 @@
       <c r="C116">
         <v>10</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -2950,9 +1863,8 @@
       <c r="C117">
         <v>10</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2962,9 +1874,8 @@
       <c r="C118">
         <v>10</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2974,9 +1885,8 @@
       <c r="C119">
         <v>10</v>
       </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2986,9 +1896,8 @@
       <c r="C120">
         <v>10</v>
       </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -2998,9 +1907,8 @@
       <c r="C121">
         <v>10</v>
       </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -3010,11 +1918,17 @@
       <c r="C122">
         <v>11</v>
       </c>
-      <c r="D122" s="1">
-        <v>108.48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>106.89</v>
+      </c>
+      <c r="E122">
+        <v>0.26</v>
+      </c>
+      <c r="G122">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -3025,7 +1939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
